--- a/Data/Results/Different_Max_Features.xlsx
+++ b/Data/Results/Different_Max_Features.xlsx
@@ -19,7 +19,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>50</t>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1349,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1454,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -1559,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1839,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>17</v>
@@ -1874,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>13</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -2014,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -2049,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -2224,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>12</v>
@@ -2259,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2294,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -2329,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -2364,7 +2364,7 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2504,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -2539,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>14</v>
@@ -2609,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -2644,7 +2644,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>13</v>
@@ -2679,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -2784,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>13</v>
@@ -2819,7 +2819,7 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>14</v>
@@ -2959,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>13</v>
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -3029,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>7</v>
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>12</v>
@@ -3134,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -3169,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>14</v>
@@ -3204,7 +3204,7 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -3239,7 +3239,7 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -3309,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>19</v>
@@ -3344,7 +3344,7 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>12</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>12</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -3659,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>16</v>
@@ -3694,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -3729,7 +3729,7 @@
         <v>16</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -3799,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -3834,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -3869,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>12</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>11</v>
@@ -3974,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>10</v>
@@ -4009,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -4044,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -4079,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -4114,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -4219,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>11</v>
@@ -4254,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -4324,7 +4324,7 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -4359,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -4394,7 +4394,7 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>10</v>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>10</v>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -4499,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>11</v>
@@ -4534,7 +4534,7 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -4569,7 +4569,7 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>18</v>
@@ -4604,7 +4604,7 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -4639,7 +4639,7 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -4674,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4709,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>11</v>
@@ -4744,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -4779,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -4814,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D114">
         <v>13</v>
@@ -4849,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115">
         <v>17</v>
@@ -4884,7 +4884,7 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>11</v>
@@ -4919,7 +4919,7 @@
         <v>6</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>9</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>9</v>
@@ -4989,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D119">
         <v>12</v>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -5059,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -5094,7 +5094,7 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -5129,7 +5129,7 @@
         <v>17</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>4</v>
@@ -5164,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -5199,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -5234,7 +5234,7 @@
         <v>17</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127">
         <v>10</v>
@@ -5304,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -5374,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -5409,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -5444,7 +5444,7 @@
         <v>19</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D132">
         <v>15</v>
@@ -5479,7 +5479,7 @@
         <v>6</v>
       </c>
       <c r="C133">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -5549,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -5619,7 +5619,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D137">
         <v>13</v>
@@ -5654,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -5724,7 +5724,7 @@
         <v>5</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140">
         <v>13</v>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D141">
         <v>9</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D142">
         <v>9</v>
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D143">
         <v>9</v>
@@ -5864,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -5899,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -5934,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D147">
         <v>13</v>
@@ -6004,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D149">
         <v>6</v>
@@ -6074,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D150">
         <v>0</v>

--- a/Data/Results/Different_Max_Features.xlsx
+++ b/Data/Results/Different_Max_Features.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Individual" sheetId="1" r:id="rId1"/>
+    <sheet name="Collective" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="159">
   <si>
     <t>10</t>
   </si>
@@ -891,34 +892,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -926,31 +927,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -961,34 +962,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -996,34 +997,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1031,34 +1032,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>17</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1066,34 +1067,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1101,34 +1102,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1136,34 +1137,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1171,34 +1172,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1206,34 +1207,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1241,34 +1242,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1276,34 +1277,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1311,34 +1312,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,31 +1347,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1381,34 +1382,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,34 +1417,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1451,34 +1452,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1486,34 +1487,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
       <c r="K19">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1521,34 +1522,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1556,34 +1557,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1591,34 +1592,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1626,34 +1627,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1661,31 +1662,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
         <v>13</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
       <c r="I24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -1696,34 +1697,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K25">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1731,34 +1732,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1766,34 +1767,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
+      <c r="J27">
         <v>14</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
       <c r="K27">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1804,31 +1805,31 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,34 +1837,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,34 +1872,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,34 +1907,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1941,34 +1942,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1976,34 +1977,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2011,34 +2012,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2046,34 +2047,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2081,34 +2082,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2116,34 +2117,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2151,34 +2152,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>12</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2186,34 +2187,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
         <v>16</v>
       </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K39">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2221,34 +2222,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2256,34 +2257,34 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
         <v>16</v>
       </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2291,34 +2292,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2326,34 +2327,34 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,34 +2362,34 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2396,34 +2397,34 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,34 +2432,34 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2466,34 +2467,34 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2501,34 +2502,34 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2536,34 +2537,34 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2571,34 +2572,34 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>16</v>
       </c>
-      <c r="D50">
-        <v>14</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2606,34 +2607,34 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H51">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K51">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2641,34 +2642,34 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2676,34 +2677,34 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>12</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2711,34 +2712,34 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2746,34 +2747,34 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K55">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2781,34 +2782,34 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
         <v>13</v>
       </c>
-      <c r="E56">
-        <v>13</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K56">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2816,34 +2817,34 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>7</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2851,34 +2852,34 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2886,34 +2887,34 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2921,34 +2922,34 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2956,34 +2957,34 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H61">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K61">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2991,34 +2992,34 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K62">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3026,34 +3027,34 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J63">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3061,31 +3062,31 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -3096,34 +3097,34 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>12</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J65">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3131,34 +3132,34 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K66">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3166,34 +3167,34 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>16</v>
       </c>
-      <c r="D67">
-        <v>14</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K67">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3201,34 +3202,34 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3236,34 +3237,34 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3271,34 +3272,34 @@
         <v>78</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>3</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3306,34 +3307,34 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3341,34 +3342,34 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H72">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J72">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3376,34 +3377,34 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>7</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3411,34 +3412,34 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3446,34 +3447,34 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H75">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3481,34 +3482,34 @@
         <v>84</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
       <c r="E76">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F76">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J76">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3516,31 +3517,31 @@
         <v>85</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K77">
         <v>11</v>
@@ -3551,34 +3552,34 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>12</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J78">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K78">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3586,34 +3587,34 @@
         <v>87</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J79">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3621,34 +3622,34 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K80">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3656,34 +3657,34 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H81">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J81">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3691,34 +3692,34 @@
         <v>90</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K82">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3726,34 +3727,34 @@
         <v>91</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K83">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3761,34 +3762,34 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3796,34 +3797,34 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3831,34 +3832,34 @@
         <v>94</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>19</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>17</v>
       </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>18</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>7</v>
-      </c>
       <c r="H86">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3866,34 +3867,34 @@
         <v>95</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K87">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3901,34 +3902,34 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F88">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I88">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J88">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K88">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3936,34 +3937,34 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J89">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3971,34 +3972,34 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4006,34 +4007,34 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4041,34 +4042,34 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K92">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4076,34 +4077,34 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>7</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K93">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4111,34 +4112,34 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I94">
         <v>3</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K94">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4146,34 +4147,34 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H95">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J95">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4181,34 +4182,34 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H96">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K96">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4216,34 +4217,34 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H97">
         <v>7</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K97">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4251,34 +4252,34 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>7</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4286,34 +4287,34 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99">
         <v>17</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4321,34 +4322,34 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H100">
         <v>7</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K100">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4356,34 +4357,34 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101">
         <v>17</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4391,34 +4392,34 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102">
         <v>17</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4426,34 +4427,34 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K103">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4461,34 +4462,34 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104">
         <v>17</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J104">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4496,34 +4497,34 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H105">
         <v>7</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4531,34 +4532,34 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H106">
         <v>7</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K106">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4566,34 +4567,34 @@
         <v>115</v>
       </c>
       <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+      <c r="E107">
         <v>16</v>
       </c>
-      <c r="C107">
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <v>19</v>
+      </c>
+      <c r="I107">
         <v>18</v>
       </c>
-      <c r="D107">
-        <v>18</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>4</v>
-      </c>
-      <c r="H107">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>8</v>
-      </c>
       <c r="J107">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4601,34 +4602,34 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H108">
         <v>7</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K108">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4636,34 +4637,34 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4671,19 +4672,19 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G110">
         <v>16</v>
@@ -4692,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4706,34 +4707,34 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J111">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4741,34 +4742,34 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K112">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4776,34 +4777,34 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K113">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4811,34 +4812,34 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G114">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K114">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4846,34 +4847,34 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C115">
         <v>17</v>
       </c>
       <c r="D115">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G115">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H115">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4881,34 +4882,34 @@
         <v>124</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K116">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4916,34 +4917,34 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G117">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4951,34 +4952,34 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G118">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K118">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4986,34 +4987,34 @@
         <v>127</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119">
         <v>12</v>
       </c>
       <c r="E119">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F119">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I119">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J119">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K119">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5021,34 +5022,34 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H120">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I120">
         <v>3</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K120">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5056,34 +5057,34 @@
         <v>129</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J121">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K121">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5091,34 +5092,34 @@
         <v>130</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
         <v>17</v>
       </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122">
-        <v>18</v>
-      </c>
-      <c r="F122">
-        <v>2</v>
-      </c>
-      <c r="G122">
-        <v>7</v>
-      </c>
       <c r="H122">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J122">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5126,34 +5127,34 @@
         <v>131</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I123">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J123">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K123">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5161,34 +5162,34 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I124">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J124">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5196,34 +5197,34 @@
         <v>133</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J125">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K125">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5231,34 +5232,34 @@
         <v>134</v>
       </c>
       <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>19</v>
+      </c>
+      <c r="D126">
         <v>17</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
       <c r="E126">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J126">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5266,34 +5267,34 @@
         <v>135</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K127">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5301,34 +5302,34 @@
         <v>136</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J128">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K128">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5339,31 +5340,31 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K129">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5371,34 +5372,34 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5406,34 +5407,34 @@
         <v>139</v>
       </c>
       <c r="B131">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K131">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5441,34 +5442,34 @@
         <v>140</v>
       </c>
       <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132">
         <v>19</v>
       </c>
-      <c r="C132">
-        <v>15</v>
-      </c>
-      <c r="D132">
-        <v>15</v>
-      </c>
-      <c r="E132">
-        <v>7</v>
-      </c>
-      <c r="F132">
-        <v>19</v>
-      </c>
-      <c r="G132">
-        <v>13</v>
-      </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5476,34 +5477,34 @@
         <v>141</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F133">
         <v>7</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5511,34 +5512,34 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I134">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J134">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K134">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5546,34 +5547,34 @@
         <v>143</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I135">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K135">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5581,34 +5582,34 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J136">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K136">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5616,19 +5617,19 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F137">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G137">
         <v>16</v>
@@ -5637,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5651,34 +5652,34 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J138">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K138">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5686,34 +5687,34 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I139">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J139">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K139">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5721,34 +5722,34 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G140">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K140">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5756,34 +5757,34 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G141">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J141">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K141">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5791,34 +5792,34 @@
         <v>150</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G142">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J142">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K142">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5826,34 +5827,34 @@
         <v>151</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G143">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K143">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5861,34 +5862,34 @@
         <v>152</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F144">
         <v>7</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5896,34 +5897,34 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H145">
         <v>7</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K145">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5931,34 +5932,34 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5966,34 +5967,34 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I147">
         <v>3</v>
       </c>
       <c r="J147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6001,34 +6002,34 @@
         <v>156</v>
       </c>
       <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>14</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>19</v>
+      </c>
+      <c r="I148">
+        <v>18</v>
+      </c>
+      <c r="J148">
         <v>13</v>
       </c>
-      <c r="C148">
-        <v>19</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>9</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-      <c r="G148">
-        <v>4</v>
-      </c>
-      <c r="H148">
-        <v>10</v>
-      </c>
-      <c r="I148">
-        <v>8</v>
-      </c>
-      <c r="J148">
-        <v>19</v>
-      </c>
       <c r="K148">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6036,34 +6037,34 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F149">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I149">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J149">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K149">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6071,34 +6072,779 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F150">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H150">
+        <v>18</v>
+      </c>
+      <c r="I150">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>16</v>
       </c>
-      <c r="I150">
-        <v>5</v>
-      </c>
-      <c r="J150">
-        <v>5</v>
-      </c>
-      <c r="K150">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>13</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
